--- a/New FootPrint.xlsx
+++ b/New FootPrint.xlsx
@@ -268,11 +268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238288624"/>
-        <c:axId val="238287504"/>
+        <c:axId val="208669664"/>
+        <c:axId val="208670224"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="238288624"/>
+        <c:axId val="208669664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +315,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238287504"/>
+        <c:crossAx val="208670224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -323,7 +323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238287504"/>
+        <c:axId val="208670224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -335,8 +335,7 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:alpha val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -375,7 +374,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238288624"/>
+        <c:crossAx val="208669664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -441,7 +440,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25868438858935733"/>
+          <c:y val="7.3886341319010479E-2"/>
+          <c:w val="0.46511599843123058"/>
+          <c:h val="0.8442789827884134"/>
+        </c:manualLayout>
+      </c:layout>
       <c:radarChart>
         <c:radarStyle val="filled"/>
         <c:varyColors val="0"/>
@@ -531,11 +540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210680592"/>
-        <c:axId val="210684512"/>
+        <c:axId val="208646752"/>
+        <c:axId val="208647312"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="210680592"/>
+        <c:axId val="208646752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -578,7 +587,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210684512"/>
+        <c:crossAx val="208647312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -586,7 +595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210684512"/>
+        <c:axId val="208647312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,8 +606,7 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:alpha val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -637,7 +645,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210680592"/>
+        <c:crossAx val="208646752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -793,11 +801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="250179792"/>
-        <c:axId val="250180912"/>
+        <c:axId val="208649552"/>
+        <c:axId val="208650112"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="250179792"/>
+        <c:axId val="208649552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +848,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250180912"/>
+        <c:crossAx val="208650112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="250180912"/>
+        <c:axId val="208650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,8 +867,7 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:alpha val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -899,7 +906,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="250179792"/>
+        <c:crossAx val="208649552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2589,15 +2596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2690,11 +2697,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A4:B12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A4:B12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A4:B12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Propiretà" dataDxfId="3"/>
-    <tableColumn id="2" name="Valore" dataDxfId="2"/>
+    <tableColumn id="1" name="Propiretà" dataDxfId="1"/>
+    <tableColumn id="2" name="Valore" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2965,8 +2972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B26"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/New FootPrint.xlsx
+++ b/New FootPrint.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Astrazione</t>
   </si>
@@ -107,15 +108,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -123,13 +130,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,11 +294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208669664"/>
-        <c:axId val="208670224"/>
+        <c:axId val="159574160"/>
+        <c:axId val="159574720"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="208669664"/>
+        <c:axId val="159574160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +341,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208670224"/>
+        <c:crossAx val="159574720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -323,7 +349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208670224"/>
+        <c:axId val="159574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -374,7 +400,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208669664"/>
+        <c:crossAx val="159574160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -540,11 +566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208646752"/>
-        <c:axId val="208647312"/>
+        <c:axId val="159576960"/>
+        <c:axId val="159577520"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="208646752"/>
+        <c:axId val="159576960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +613,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208647312"/>
+        <c:crossAx val="159577520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -595,7 +621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208647312"/>
+        <c:axId val="159577520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +671,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208646752"/>
+        <c:crossAx val="159576960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -801,11 +827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208649552"/>
-        <c:axId val="208650112"/>
+        <c:axId val="159579760"/>
+        <c:axId val="159580320"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="208649552"/>
+        <c:axId val="159579760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +874,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208650112"/>
+        <c:crossAx val="159580320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208650112"/>
+        <c:axId val="159580320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +932,439 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208649552"/>
+        <c:crossAx val="159579760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio4!$B$7:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Astrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Complessità</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frequenza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritardo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localizzazione</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ExtraFlow</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IntrFlow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Condivisione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$C$7:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio4!$B$7:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Astrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Complessità</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frequenza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritardo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localizzazione</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ExtraFlow</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IntrFlow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Condivisione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$D$7:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio4!$B$7:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Astrazione</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Complessità</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Frequenza</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ritardo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Localizzazione</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ExtraFlow</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IntrFlow</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Condivisione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$E$7:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="204124288"/>
+        <c:axId val="204122048"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="204124288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204122048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204122048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204124288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1076,6 +1534,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -2087,6 +2585,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2675,6 +3678,41 @@
       <xdr:colOff>542924</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2972,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3312,4 +4350,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/New FootPrint.xlsx
+++ b/New FootPrint.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Astrazione</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Complessità elevata</t>
+  </si>
+  <si>
+    <t>Serie 2</t>
   </si>
 </sst>
 </file>
@@ -294,11 +297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159574160"/>
-        <c:axId val="159574720"/>
+        <c:axId val="191904752"/>
+        <c:axId val="191905312"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="159574160"/>
+        <c:axId val="191904752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,7 +344,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159574720"/>
+        <c:crossAx val="191905312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -349,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159574720"/>
+        <c:axId val="191905312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -400,7 +403,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159574160"/>
+        <c:crossAx val="191904752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -566,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159576960"/>
-        <c:axId val="159577520"/>
+        <c:axId val="191907552"/>
+        <c:axId val="191908112"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="159576960"/>
+        <c:axId val="191907552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +616,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159577520"/>
+        <c:crossAx val="191908112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -621,7 +624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159577520"/>
+        <c:axId val="191908112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +674,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159576960"/>
+        <c:crossAx val="191907552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -827,11 +830,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159579760"/>
-        <c:axId val="159580320"/>
+        <c:axId val="191910352"/>
+        <c:axId val="191910912"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="159579760"/>
+        <c:axId val="191910352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,7 +877,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159580320"/>
+        <c:crossAx val="191910912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -882,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159580320"/>
+        <c:axId val="191910912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +935,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159579760"/>
+        <c:crossAx val="191910352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1005,6 +1008,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Soluzione 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -1088,6 +1094,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Soluzione 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
@@ -1171,6 +1180,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Soluzione 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="63500" cap="rnd">
               <a:solidFill>
@@ -1259,11 +1271,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204124288"/>
-        <c:axId val="204122048"/>
+        <c:axId val="191914272"/>
+        <c:axId val="191914832"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="204124288"/>
+        <c:axId val="191914272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1318,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204122048"/>
+        <c:crossAx val="191914832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204122048"/>
+        <c:axId val="191914832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1376,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204124288"/>
+        <c:crossAx val="191914272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1377,6 +1389,116 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75749241861677152"/>
+          <c:y val="0.35966070141884776"/>
+          <c:w val="0.19076629595858563"/>
+          <c:h val="0.31452878964808817"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3704,15 +3826,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>866774</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4354,10 +4476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:I14"/>
+  <dimension ref="B6:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4373,6 +4495,11 @@
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
